--- a/INT_env/INT_data.xlsx
+++ b/INT_env/INT_data.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/EiraLi-Katalon_API/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/EiraLi-Katalon_API/INT_env/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{525B299A-B772-6A4C-936D-0EA0318933EA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700B4ED8-7E7B-C14E-8217-969B8E012AD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-4400" windowWidth="38400" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
+    <workbookView xWindow="740" yWindow="620" windowWidth="28060" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="ref" sheetId="2" r:id="rId2"/>
     <sheet name="工作表1" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="71">
   <si>
     <t>partner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -225,9 +225,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NG-0063</t>
-  </si>
-  <si>
     <t>url_genplus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,12 +271,18 @@
     <t>og_int_0001</t>
   </si>
   <si>
-    <t>env</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3655oule.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>M4-0012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW_M4_V1_RECORDER</t>
+  </si>
+  <si>
+    <t>krug-gw-colo.3655oule.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M4_recorder</t>
   </si>
 </sst>
 </file>
@@ -343,12 +346,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color rgb="FF091E42"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="新細明體"/>
@@ -368,8 +365,14 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF505050"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,7 +438,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -439,9 +448,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -457,16 +463,25 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -785,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670E70B4-D18C-8A41-9D76-6A8C3B916D59}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:N10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -803,448 +818,449 @@
     <col min="10" max="10" width="29.33203125" style="1" customWidth="1"/>
     <col min="11" max="12" width="20" style="1" customWidth="1"/>
     <col min="13" max="13" width="23.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="30" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.1640625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:14" s="7" customFormat="1">
+      <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N2" s="14" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="20">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="12" t="s">
+    <row r="3" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="I3" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M3" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="G4" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" s="2" customFormat="1" ht="20">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="K4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M4" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="I5" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="J5" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L5" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M5" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="G6" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" s="2" customFormat="1" ht="20">
-      <c r="A4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="K6" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M6" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="I7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="J7" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L7" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="10" t="s">
+      <c r="M7" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="G8" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J8" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" s="2" customFormat="1" ht="20">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="K8" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H9" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="I9" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="J9" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L9" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="2" customFormat="1" ht="20">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="G10" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="12" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" s="2" customFormat="1" ht="20">
-      <c r="A6" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="K10" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="L6" t="s">
+      <c r="L10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" ht="20">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" t="s">
-        <v>39</v>
-      </c>
-      <c r="L7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" ht="20">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L8" t="s">
-        <v>43</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="2" customFormat="1" ht="20">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="2" customFormat="1" ht="20">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" t="s">
-        <v>39</v>
-      </c>
-      <c r="L10" t="s">
-        <v>43</v>
-      </c>
-      <c r="M10" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>69</v>
+      <c r="M10" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N10" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="2" customFormat="1" ht="20"/>
@@ -1260,9 +1276,9 @@
     <row r="21" s="2" customFormat="1" ht="20"/>
     <row r="22" s="2" customFormat="1" ht="20"/>
     <row r="23" s="2" customFormat="1" ht="20"/>
-    <row r="24" s="4" customFormat="1" ht="25"/>
-    <row r="25" s="4" customFormat="1" ht="25"/>
-    <row r="26" s="4" customFormat="1" ht="25"/>
+    <row r="24" s="3" customFormat="1" ht="25"/>
+    <row r="25" s="3" customFormat="1" ht="25"/>
+    <row r="26" s="3" customFormat="1" ht="25"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1294,7 +1310,7 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B2" t="s">
@@ -1311,7 +1327,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B3" t="s">
@@ -1322,7 +1338,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
       <c r="B4" t="s">
@@ -1330,7 +1346,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>43</v>
       </c>
       <c r="B5" t="s">

--- a/INT_env/INT_data.xlsx
+++ b/INT_env/INT_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eiralee/EiraLi-Katalon_API/INT_env/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700B4ED8-7E7B-C14E-8217-969B8E012AD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F187A1-26FC-7143-888B-E4448A6FAEE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="620" windowWidth="28060" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
+    <workbookView xWindow="33020" yWindow="-2300" windowWidth="28060" windowHeight="17100" xr2:uid="{4ABBE822-C540-4244-926E-370C7E326042}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
   <si>
     <t>partner</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -283,6 +283,10 @@
   </si>
   <si>
     <t>M4_recorder</t>
+  </si>
+  <si>
+    <t>nurgs.3655oule.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -800,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{670E70B4-D18C-8A41-9D76-6A8C3B916D59}">
   <dimension ref="A1:N26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:N1048576"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="26"/>
@@ -893,7 +897,7 @@
         <v>57</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J2" s="12" t="s">
         <v>69</v>
@@ -937,7 +941,7 @@
         <v>57</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J3" s="12" t="s">
         <v>69</v>
@@ -981,7 +985,7 @@
         <v>57</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>69</v>
@@ -1025,7 +1029,7 @@
         <v>57</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>69</v>
@@ -1069,7 +1073,7 @@
         <v>57</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>69</v>
@@ -1113,7 +1117,7 @@
         <v>57</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J7" s="12" t="s">
         <v>69</v>
@@ -1157,7 +1161,7 @@
         <v>57</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J8" s="12" t="s">
         <v>69</v>
@@ -1201,7 +1205,7 @@
         <v>57</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>69</v>
@@ -1245,7 +1249,7 @@
         <v>57</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J10" s="12" t="s">
         <v>69</v>
